--- a/para/Swi/A2F12M12W2.xlsx
+++ b/para/Swi/A2F12M12W2.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1730" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E54D0F0-0575-418B-B951-241F45939DFE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18120" yWindow="-2550" windowWidth="18240" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -1367,6 +1367,7 @@
     <xf numFmtId="11" fontId="0" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1374,6 +1375,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1385,22 +1395,12 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -20183,11 +20183,11 @@
       <c r="F20" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="J20" s="67" t="s">
+      <c r="J20" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="K20" s="68"/>
-      <c r="L20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="70"/>
     </row>
     <row r="21" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -20311,7 +20311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCB0370-656A-4BCA-B950-AA707D31C9FC}">
   <dimension ref="A1:AA184"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
@@ -21159,39 +21159,39 @@
     </row>
     <row r="31" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="72"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="76"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="75"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="73"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="77"/>
+      <c r="A34" s="78"/>
       <c r="B34" s="34">
         <f t="shared" ref="B34" si="0">F$14</f>
         <v>25</v>
@@ -21423,39 +21423,39 @@
     </row>
     <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="70" t="s">
+      <c r="A52" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="71"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="72"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="75"/>
+      <c r="F52" s="75"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="76"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="76" t="s">
+      <c r="A53" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="73" t="s">
+      <c r="B53" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="75"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
+      <c r="K53" s="73"/>
     </row>
     <row r="54" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="77"/>
+      <c r="A54" s="78"/>
       <c r="B54" s="34">
         <f t="shared" ref="B54" si="3">F$14</f>
         <v>25</v>
@@ -21687,39 +21687,39 @@
     </row>
     <row r="71" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="70" t="s">
+      <c r="A72" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B72" s="71"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71"/>
-      <c r="H72" s="71"/>
-      <c r="I72" s="71"/>
-      <c r="J72" s="71"/>
-      <c r="K72" s="72"/>
+      <c r="B72" s="75"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="75"/>
+      <c r="G72" s="75"/>
+      <c r="H72" s="75"/>
+      <c r="I72" s="75"/>
+      <c r="J72" s="75"/>
+      <c r="K72" s="76"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="76" t="s">
+      <c r="A73" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="73" t="s">
+      <c r="B73" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C73" s="74"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="74"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="74"/>
-      <c r="J73" s="74"/>
-      <c r="K73" s="75"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="72"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="72"/>
+      <c r="J73" s="72"/>
+      <c r="K73" s="73"/>
     </row>
     <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="77"/>
+      <c r="A74" s="78"/>
       <c r="B74" s="34">
         <f t="shared" ref="B74" si="13">F$14</f>
         <v>25</v>
@@ -21958,39 +21958,39 @@
     </row>
     <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="70" t="s">
+      <c r="A92" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B92" s="71"/>
-      <c r="C92" s="71"/>
-      <c r="D92" s="71"/>
-      <c r="E92" s="71"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="71"/>
-      <c r="H92" s="71"/>
-      <c r="I92" s="71"/>
-      <c r="J92" s="71"/>
-      <c r="K92" s="72"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="75"/>
+      <c r="D92" s="75"/>
+      <c r="E92" s="75"/>
+      <c r="F92" s="75"/>
+      <c r="G92" s="75"/>
+      <c r="H92" s="75"/>
+      <c r="I92" s="75"/>
+      <c r="J92" s="75"/>
+      <c r="K92" s="76"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="76" t="s">
+      <c r="A93" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="B93" s="73" t="s">
+      <c r="B93" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="74"/>
-      <c r="D93" s="74"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="74"/>
-      <c r="G93" s="74"/>
-      <c r="H93" s="74"/>
-      <c r="I93" s="74"/>
-      <c r="J93" s="74"/>
-      <c r="K93" s="75"/>
+      <c r="C93" s="72"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
+      <c r="G93" s="72"/>
+      <c r="H93" s="72"/>
+      <c r="I93" s="72"/>
+      <c r="J93" s="72"/>
+      <c r="K93" s="73"/>
     </row>
     <row r="94" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="77"/>
+      <c r="A94" s="78"/>
       <c r="B94" s="34">
         <f t="shared" ref="B94" si="24">F$14</f>
         <v>25</v>
@@ -22229,41 +22229,41 @@
     </row>
     <row r="111" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A112" s="70" t="s">
+      <c r="A112" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B112" s="71"/>
-      <c r="C112" s="71"/>
-      <c r="D112" s="71"/>
-      <c r="E112" s="71"/>
-      <c r="F112" s="71"/>
-      <c r="G112" s="71"/>
-      <c r="H112" s="71"/>
-      <c r="I112" s="71"/>
-      <c r="J112" s="71"/>
-      <c r="K112" s="72"/>
+      <c r="B112" s="75"/>
+      <c r="C112" s="75"/>
+      <c r="D112" s="75"/>
+      <c r="E112" s="75"/>
+      <c r="F112" s="75"/>
+      <c r="G112" s="75"/>
+      <c r="H112" s="75"/>
+      <c r="I112" s="75"/>
+      <c r="J112" s="75"/>
+      <c r="K112" s="76"/>
       <c r="L112" s="2"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" s="76" t="s">
+      <c r="A113" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B113" s="73" t="s">
+      <c r="B113" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="74"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="74"/>
-      <c r="H113" s="74"/>
-      <c r="I113" s="74"/>
-      <c r="J113" s="74"/>
-      <c r="K113" s="75"/>
+      <c r="C113" s="72"/>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
+      <c r="F113" s="72"/>
+      <c r="G113" s="72"/>
+      <c r="H113" s="72"/>
+      <c r="I113" s="72"/>
+      <c r="J113" s="72"/>
+      <c r="K113" s="73"/>
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="77"/>
+      <c r="A114" s="78"/>
       <c r="B114" s="34">
         <f t="shared" ref="B114" si="35">F$14</f>
         <v>25</v>
@@ -22506,39 +22506,39 @@
     </row>
     <row r="131" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="70" t="s">
+      <c r="A132" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="B132" s="71"/>
-      <c r="C132" s="71"/>
-      <c r="D132" s="71"/>
-      <c r="E132" s="71"/>
-      <c r="F132" s="71"/>
-      <c r="G132" s="71"/>
-      <c r="H132" s="71"/>
-      <c r="I132" s="71"/>
-      <c r="J132" s="71"/>
-      <c r="K132" s="72"/>
+      <c r="B132" s="75"/>
+      <c r="C132" s="75"/>
+      <c r="D132" s="75"/>
+      <c r="E132" s="75"/>
+      <c r="F132" s="75"/>
+      <c r="G132" s="75"/>
+      <c r="H132" s="75"/>
+      <c r="I132" s="75"/>
+      <c r="J132" s="75"/>
+      <c r="K132" s="76"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="76" t="s">
+      <c r="A133" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="B133" s="73" t="s">
+      <c r="B133" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C133" s="74"/>
-      <c r="D133" s="74"/>
-      <c r="E133" s="74"/>
-      <c r="F133" s="74"/>
-      <c r="G133" s="74"/>
-      <c r="H133" s="74"/>
-      <c r="I133" s="74"/>
-      <c r="J133" s="74"/>
-      <c r="K133" s="75"/>
+      <c r="C133" s="72"/>
+      <c r="D133" s="72"/>
+      <c r="E133" s="72"/>
+      <c r="F133" s="72"/>
+      <c r="G133" s="72"/>
+      <c r="H133" s="72"/>
+      <c r="I133" s="72"/>
+      <c r="J133" s="72"/>
+      <c r="K133" s="73"/>
     </row>
     <row r="134" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="77"/>
+      <c r="A134" s="78"/>
       <c r="B134" s="34">
         <f t="shared" ref="B134" si="45">F$14</f>
         <v>25</v>
@@ -22742,39 +22742,39 @@
     </row>
     <row r="151" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="70" t="s">
+      <c r="A152" s="74" t="s">
         <v>142</v>
       </c>
-      <c r="B152" s="71"/>
-      <c r="C152" s="71"/>
-      <c r="D152" s="71"/>
-      <c r="E152" s="71"/>
-      <c r="F152" s="71"/>
-      <c r="G152" s="71"/>
-      <c r="H152" s="71"/>
-      <c r="I152" s="71"/>
-      <c r="J152" s="71"/>
-      <c r="K152" s="72"/>
+      <c r="B152" s="75"/>
+      <c r="C152" s="75"/>
+      <c r="D152" s="75"/>
+      <c r="E152" s="75"/>
+      <c r="F152" s="75"/>
+      <c r="G152" s="75"/>
+      <c r="H152" s="75"/>
+      <c r="I152" s="75"/>
+      <c r="J152" s="75"/>
+      <c r="K152" s="76"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" s="76" t="s">
+      <c r="A153" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="B153" s="73" t="s">
+      <c r="B153" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C153" s="74"/>
-      <c r="D153" s="74"/>
-      <c r="E153" s="74"/>
-      <c r="F153" s="74"/>
-      <c r="G153" s="74"/>
-      <c r="H153" s="74"/>
-      <c r="I153" s="74"/>
-      <c r="J153" s="74"/>
-      <c r="K153" s="75"/>
+      <c r="C153" s="72"/>
+      <c r="D153" s="72"/>
+      <c r="E153" s="72"/>
+      <c r="F153" s="72"/>
+      <c r="G153" s="72"/>
+      <c r="H153" s="72"/>
+      <c r="I153" s="72"/>
+      <c r="J153" s="72"/>
+      <c r="K153" s="73"/>
     </row>
     <row r="154" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="77"/>
+      <c r="A154" s="78"/>
       <c r="B154" s="34">
         <f t="shared" ref="B154" si="55">F$14</f>
         <v>25</v>
@@ -22978,39 +22978,39 @@
     </row>
     <row r="171" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A172" s="70" t="s">
+      <c r="A172" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="B172" s="71"/>
-      <c r="C172" s="71"/>
-      <c r="D172" s="71"/>
-      <c r="E172" s="71"/>
-      <c r="F172" s="71"/>
-      <c r="G172" s="71"/>
-      <c r="H172" s="71"/>
-      <c r="I172" s="71"/>
-      <c r="J172" s="71"/>
-      <c r="K172" s="72"/>
+      <c r="B172" s="75"/>
+      <c r="C172" s="75"/>
+      <c r="D172" s="75"/>
+      <c r="E172" s="75"/>
+      <c r="F172" s="75"/>
+      <c r="G172" s="75"/>
+      <c r="H172" s="75"/>
+      <c r="I172" s="75"/>
+      <c r="J172" s="75"/>
+      <c r="K172" s="76"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A173" s="76" t="s">
+      <c r="A173" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="B173" s="73" t="s">
+      <c r="B173" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="C173" s="74"/>
-      <c r="D173" s="74"/>
-      <c r="E173" s="74"/>
-      <c r="F173" s="74"/>
-      <c r="G173" s="74"/>
-      <c r="H173" s="74"/>
-      <c r="I173" s="74"/>
-      <c r="J173" s="74"/>
-      <c r="K173" s="75"/>
+      <c r="C173" s="72"/>
+      <c r="D173" s="72"/>
+      <c r="E173" s="72"/>
+      <c r="F173" s="72"/>
+      <c r="G173" s="72"/>
+      <c r="H173" s="72"/>
+      <c r="I173" s="72"/>
+      <c r="J173" s="72"/>
+      <c r="K173" s="73"/>
     </row>
     <row r="174" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A174" s="77"/>
+      <c r="A174" s="78"/>
       <c r="B174" s="34">
         <f t="shared" ref="B174" si="65">F$14</f>
         <v>25</v>
@@ -23214,21 +23214,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B73:K73"/>
-    <mergeCell ref="A92:K92"/>
-    <mergeCell ref="B93:K93"/>
-    <mergeCell ref="A112:K112"/>
-    <mergeCell ref="B113:K113"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A53:A54"/>
     <mergeCell ref="A152:K152"/>
     <mergeCell ref="B153:K153"/>
     <mergeCell ref="A172:K172"/>
@@ -23238,6 +23223,21 @@
     <mergeCell ref="A133:A134"/>
     <mergeCell ref="A153:A154"/>
     <mergeCell ref="A173:A174"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B73:K73"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="B93:K93"/>
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="B113:K113"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A113:A114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23249,7 +23249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF10A5AF-6534-4D65-85BA-4292797F34F0}">
   <dimension ref="A1:P175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -23275,7 +23275,7 @@
       <c r="E1" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="67" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="22" t="s">

--- a/para/Swi/A2F12M12W2.xlsx
+++ b/para/Swi/A2F12M12W2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f215465b21b5e6e2/Studium/34_Github/PyPowerSim/para/Swi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1730" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E54D0F0-0575-418B-B951-241F45939DFE}"/>
+  <xr:revisionPtr revIDLastSave="1743" documentId="11_AD4DB114E441178AC67DF439BED5CE16693EDF27" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4AB763E-835F-4F8C-834A-9AA0AA66C851}"/>
   <bookViews>
-    <workbookView xWindow="-18120" yWindow="-2550" windowWidth="18240" windowHeight="28320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -3007,55 +3007,55 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1.999866672592332E-4</c:v>
+                  <c:v>4.9991667592513833E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9994667140708096E-4</c:v>
+                  <c:v>9.9966674072837769E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9966674072837769E-4</c:v>
+                  <c:v>2.497917823591933E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9986672590618371E-3</c:v>
+                  <c:v>4.9916759182150883E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9946714042485842E-3</c:v>
+                  <c:v>9.9667406174483442E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.9667406174483442E-3</c:v>
+                  <c:v>2.4792819267573762E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9867257289206464E-2</c:v>
+                  <c:v>4.9175849276991146E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9471375970282496E-2</c:v>
+                  <c:v>9.6739522452573334E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.6739522452573334E-2</c:v>
+                  <c:v>0.23027741266407881</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18724002143557877</c:v>
+                  <c:v>0.42520303413931609</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35110749245302697</c:v>
+                  <c:v>0.72987432145111197</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.72987432145111197</c:v>
+                  <c:v>1.2166865957436572</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1046042928264099</c:v>
+                  <c:v>1.4464890099791214</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3957748231657976</c:v>
+                  <c:v>1.4980910492979902</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4980910492979902</c:v>
+                  <c:v>1.499999913333772</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4999975706048114</c:v>
+                  <c:v>1.4999999999999951</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4999999999960654</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1.5</c:v>
@@ -3170,7 +3170,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3287,7 +3287,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13249,46 +13249,46 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>9.9930587694600174E-4</c:v>
+                  <c:v>9.3366197399958842E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9972247924535847E-3</c:v>
+                  <c:v>0.17462510755418414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9826790069724325E-3</c:v>
+                  <c:v>0.36046671220852111</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9308759443802949E-3</c:v>
+                  <c:v>0.54046640968034676</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9724776476229191E-2</c:v>
+                  <c:v>0.67523290270407621</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8303388521253862E-2</c:v>
+                  <c:v>0.7193059374774714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.3366197399958842E-2</c:v>
+                  <c:v>0.71999933094057611</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17462510755418414</c:v>
+                  <c:v>0.71999999999937825</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.36046671220852111</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.54046640968034665</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67523290270407621</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7193059374774714</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.71999933094057611</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.71999999999937825</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.72</c:v>
@@ -13432,46 +13432,46 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>9.9919398178849317E-4</c:v>
+                  <c:v>9.2352126245080046E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9967776593620211E-3</c:v>
+                  <c:v>0.17094793761598714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9798927976022166E-3</c:v>
+                  <c:v>0.343207572758994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9197866721792653E-3</c:v>
+                  <c:v>0.49642895519682645</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9680860170775485E-2</c:v>
+                  <c:v>0.59537128530040662</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8036992692665162E-2</c:v>
+                  <c:v>0.61980500798129867</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.2352126245080046E-2</c:v>
+                  <c:v>0.6199999386743752</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1709479376159872</c:v>
+                  <c:v>0.61999999999999389</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.343207572758994</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49642895519682645</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.59537128530040662</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61980500798129867</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6199999386743752</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.61999999999999389</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.62</c:v>
@@ -13595,7 +13595,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13712,7 +13712,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -20050,7 +20050,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20311,7 +20311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCB0370-656A-4BCA-B950-AA707D31C9FC}">
   <dimension ref="A1:AA184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
@@ -23249,8 +23249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF10A5AF-6534-4D65-85BA-4292797F34F0}">
   <dimension ref="A1:P175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23355,10 +23355,10 @@
         <v>52</v>
       </c>
       <c r="E3" s="65">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F3" s="55">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
@@ -23419,10 +23419,10 @@
         <v>56</v>
       </c>
       <c r="E5" s="65">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="F5" s="55">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="32"/>
@@ -23483,10 +23483,10 @@
         <v>50</v>
       </c>
       <c r="E7" s="65">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
@@ -23854,11 +23854,11 @@
       </c>
       <c r="E100" s="7">
         <f>IFERROR(E$2*(1-EXP(-$D100/(E$2*E$3))),"")</f>
-        <v>9.9930587694600174E-4</v>
+        <v>9.3366197399958842E-2</v>
       </c>
       <c r="F100" s="7">
         <f t="shared" ref="F100:O100" si="0">IFERROR(F$2*(1-EXP(-$D100/(F$2*F$3))),"")</f>
-        <v>9.9930587694600174E-4</v>
+        <v>9.3366197399958842E-2</v>
       </c>
       <c r="G100" s="7" t="str">
         <f t="shared" si="0"/>
@@ -23898,7 +23898,7 @@
       </c>
       <c r="P100" s="7">
         <f>SUM(F100:O100)</f>
-        <v>9.9930587694600174E-4</v>
+        <v>9.3366197399958842E-2</v>
       </c>
     </row>
     <row r="101" spans="4:16" x14ac:dyDescent="0.3">
@@ -23907,11 +23907,11 @@
       </c>
       <c r="E101" s="7">
         <f t="shared" ref="E101:O121" si="1">IFERROR(E$2*(1-EXP(-$D101/(E$2*E$3))),"")</f>
-        <v>1.9972247924535847E-3</v>
+        <v>0.17462510755418414</v>
       </c>
       <c r="F101" s="7">
         <f t="shared" si="1"/>
-        <v>1.9972247924535847E-3</v>
+        <v>0.17462510755418414</v>
       </c>
       <c r="G101" s="7" t="str">
         <f t="shared" si="1"/>
@@ -23951,7 +23951,7 @@
       </c>
       <c r="P101" s="7">
         <f t="shared" ref="P101:P121" si="2">SUM(F101:O101)</f>
-        <v>1.9972247924535847E-3</v>
+        <v>0.17462510755418414</v>
       </c>
     </row>
     <row r="102" spans="4:16" x14ac:dyDescent="0.3">
@@ -23960,11 +23960,11 @@
       </c>
       <c r="E102" s="7">
         <f t="shared" si="1"/>
-        <v>4.9826790069724325E-3</v>
+        <v>0.36046671220852111</v>
       </c>
       <c r="F102" s="7">
         <f t="shared" si="1"/>
-        <v>4.9826790069724325E-3</v>
+        <v>0.36046671220852111</v>
       </c>
       <c r="G102" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24004,7 +24004,7 @@
       </c>
       <c r="P102" s="7">
         <f t="shared" si="2"/>
-        <v>4.9826790069724325E-3</v>
+        <v>0.36046671220852111</v>
       </c>
     </row>
     <row r="103" spans="4:16" x14ac:dyDescent="0.3">
@@ -24013,11 +24013,11 @@
       </c>
       <c r="E103" s="7">
         <f t="shared" si="1"/>
-        <v>9.9308759443802949E-3</v>
+        <v>0.54046640968034676</v>
       </c>
       <c r="F103" s="7">
         <f t="shared" si="1"/>
-        <v>9.9308759443802949E-3</v>
+        <v>0.54046640968034676</v>
       </c>
       <c r="G103" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24057,7 +24057,7 @@
       </c>
       <c r="P103" s="7">
         <f t="shared" si="2"/>
-        <v>9.9308759443802949E-3</v>
+        <v>0.54046640968034676</v>
       </c>
     </row>
     <row r="104" spans="4:16" x14ac:dyDescent="0.3">
@@ -24066,11 +24066,11 @@
       </c>
       <c r="E104" s="7">
         <f t="shared" si="1"/>
-        <v>1.9724776476229191E-2</v>
+        <v>0.67523290270407621</v>
       </c>
       <c r="F104" s="7">
         <f t="shared" si="1"/>
-        <v>1.9724776476229191E-2</v>
+        <v>0.67523290270407621</v>
       </c>
       <c r="G104" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24110,7 +24110,7 @@
       </c>
       <c r="P104" s="7">
         <f t="shared" si="2"/>
-        <v>1.9724776476229191E-2</v>
+        <v>0.67523290270407621</v>
       </c>
     </row>
     <row r="105" spans="4:16" x14ac:dyDescent="0.3">
@@ -24119,11 +24119,11 @@
       </c>
       <c r="E105" s="7">
         <f t="shared" si="1"/>
-        <v>4.8303388521253862E-2</v>
+        <v>0.7193059374774714</v>
       </c>
       <c r="F105" s="7">
         <f t="shared" si="1"/>
-        <v>4.8303388521253862E-2</v>
+        <v>0.7193059374774714</v>
       </c>
       <c r="G105" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24163,7 +24163,7 @@
       </c>
       <c r="P105" s="7">
         <f t="shared" si="2"/>
-        <v>4.8303388521253862E-2</v>
+        <v>0.7193059374774714</v>
       </c>
     </row>
     <row r="106" spans="4:16" x14ac:dyDescent="0.3">
@@ -24172,11 +24172,11 @@
       </c>
       <c r="E106" s="7">
         <f t="shared" si="1"/>
-        <v>9.3366197399958842E-2</v>
+        <v>0.71999933094057611</v>
       </c>
       <c r="F106" s="7">
         <f t="shared" si="1"/>
-        <v>9.3366197399958842E-2</v>
+        <v>0.71999933094057611</v>
       </c>
       <c r="G106" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24216,7 +24216,7 @@
       </c>
       <c r="P106" s="7">
         <f t="shared" si="2"/>
-        <v>9.3366197399958842E-2</v>
+        <v>0.71999933094057611</v>
       </c>
     </row>
     <row r="107" spans="4:16" x14ac:dyDescent="0.3">
@@ -24225,11 +24225,11 @@
       </c>
       <c r="E107" s="7">
         <f t="shared" si="1"/>
-        <v>0.17462510755418414</v>
+        <v>0.71999999999937825</v>
       </c>
       <c r="F107" s="7">
         <f t="shared" si="1"/>
-        <v>0.17462510755418414</v>
+        <v>0.71999999999937825</v>
       </c>
       <c r="G107" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24269,7 +24269,7 @@
       </c>
       <c r="P107" s="7">
         <f t="shared" si="2"/>
-        <v>0.17462510755418414</v>
+        <v>0.71999999999937825</v>
       </c>
     </row>
     <row r="108" spans="4:16" x14ac:dyDescent="0.3">
@@ -24278,11 +24278,11 @@
       </c>
       <c r="E108" s="7">
         <f t="shared" si="1"/>
-        <v>0.36046671220852111</v>
+        <v>0.72</v>
       </c>
       <c r="F108" s="7">
         <f t="shared" si="1"/>
-        <v>0.36046671220852111</v>
+        <v>0.72</v>
       </c>
       <c r="G108" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24322,7 +24322,7 @@
       </c>
       <c r="P108" s="7">
         <f t="shared" si="2"/>
-        <v>0.36046671220852111</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="109" spans="4:16" x14ac:dyDescent="0.3">
@@ -24331,11 +24331,11 @@
       </c>
       <c r="E109" s="7">
         <f t="shared" si="1"/>
-        <v>0.54046640968034665</v>
+        <v>0.72</v>
       </c>
       <c r="F109" s="7">
         <f t="shared" si="1"/>
-        <v>0.54046640968034665</v>
+        <v>0.72</v>
       </c>
       <c r="G109" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24375,7 +24375,7 @@
       </c>
       <c r="P109" s="7">
         <f t="shared" si="2"/>
-        <v>0.54046640968034665</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="110" spans="4:16" x14ac:dyDescent="0.3">
@@ -24384,11 +24384,11 @@
       </c>
       <c r="E110" s="7">
         <f t="shared" si="1"/>
-        <v>0.67523290270407621</v>
+        <v>0.72</v>
       </c>
       <c r="F110" s="7">
         <f t="shared" si="1"/>
-        <v>0.67523290270407621</v>
+        <v>0.72</v>
       </c>
       <c r="G110" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24428,7 +24428,7 @@
       </c>
       <c r="P110" s="7">
         <f t="shared" si="2"/>
-        <v>0.67523290270407621</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="111" spans="4:16" x14ac:dyDescent="0.3">
@@ -24437,11 +24437,11 @@
       </c>
       <c r="E111" s="7">
         <f t="shared" si="1"/>
-        <v>0.7193059374774714</v>
+        <v>0.72</v>
       </c>
       <c r="F111" s="7">
         <f t="shared" si="1"/>
-        <v>0.7193059374774714</v>
+        <v>0.72</v>
       </c>
       <c r="G111" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24481,7 +24481,7 @@
       </c>
       <c r="P111" s="7">
         <f t="shared" si="2"/>
-        <v>0.7193059374774714</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="112" spans="4:16" x14ac:dyDescent="0.3">
@@ -24490,11 +24490,11 @@
       </c>
       <c r="E112" s="7">
         <f t="shared" si="1"/>
-        <v>0.71999933094057611</v>
+        <v>0.72</v>
       </c>
       <c r="F112" s="7">
         <f t="shared" si="1"/>
-        <v>0.71999933094057611</v>
+        <v>0.72</v>
       </c>
       <c r="G112" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24534,7 +24534,7 @@
       </c>
       <c r="P112" s="7">
         <f t="shared" si="2"/>
-        <v>0.71999933094057611</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="113" spans="4:16" x14ac:dyDescent="0.3">
@@ -24543,11 +24543,11 @@
       </c>
       <c r="E113" s="7">
         <f t="shared" si="1"/>
-        <v>0.71999999999937825</v>
+        <v>0.72</v>
       </c>
       <c r="F113" s="7">
         <f t="shared" si="1"/>
-        <v>0.71999999999937825</v>
+        <v>0.72</v>
       </c>
       <c r="G113" s="7" t="str">
         <f t="shared" si="1"/>
@@ -24587,7 +24587,7 @@
       </c>
       <c r="P113" s="7">
         <f t="shared" si="2"/>
-        <v>0.71999999999937825</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="114" spans="4:16" x14ac:dyDescent="0.3">
@@ -25061,11 +25061,11 @@
       </c>
       <c r="E127" s="7">
         <f>IFERROR(E$4*(1-EXP(-$D127/(E$4*E$5))),"")</f>
-        <v>9.9930587694600174E-4</v>
+        <v>9.3366197399958842E-2</v>
       </c>
       <c r="F127" s="7">
         <f t="shared" ref="F127:O142" si="3">IFERROR(F$4*(1-EXP(-$D127/(F$4*F$5))),"")</f>
-        <v>9.9919398178849317E-4</v>
+        <v>9.2352126245080046E-2</v>
       </c>
       <c r="G127" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25105,7 +25105,7 @@
       </c>
       <c r="P127" s="7">
         <f>SUM(F127:O127)</f>
-        <v>9.9919398178849317E-4</v>
+        <v>9.2352126245080046E-2</v>
       </c>
     </row>
     <row r="128" spans="4:16" x14ac:dyDescent="0.3">
@@ -25114,11 +25114,11 @@
       </c>
       <c r="E128" s="7">
         <f t="shared" ref="E128:O148" si="4">IFERROR(E$4*(1-EXP(-$D128/(E$4*E$5))),"")</f>
-        <v>1.9972247924535847E-3</v>
+        <v>0.17462510755418414</v>
       </c>
       <c r="F128" s="7">
         <f t="shared" si="3"/>
-        <v>1.9967776593620211E-3</v>
+        <v>0.17094793761598714</v>
       </c>
       <c r="G128" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25158,7 +25158,7 @@
       </c>
       <c r="P128" s="7">
         <f t="shared" ref="P128:P147" si="5">SUM(F128:O128)</f>
-        <v>1.9967776593620211E-3</v>
+        <v>0.17094793761598714</v>
       </c>
     </row>
     <row r="129" spans="4:16" x14ac:dyDescent="0.3">
@@ -25167,11 +25167,11 @@
       </c>
       <c r="E129" s="7">
         <f t="shared" si="4"/>
-        <v>4.9826790069724325E-3</v>
+        <v>0.36046671220852111</v>
       </c>
       <c r="F129" s="7">
         <f t="shared" si="3"/>
-        <v>4.9798927976022166E-3</v>
+        <v>0.343207572758994</v>
       </c>
       <c r="G129" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25211,7 +25211,7 @@
       </c>
       <c r="P129" s="7">
         <f t="shared" si="5"/>
-        <v>4.9798927976022166E-3</v>
+        <v>0.343207572758994</v>
       </c>
     </row>
     <row r="130" spans="4:16" x14ac:dyDescent="0.3">
@@ -25220,11 +25220,11 @@
       </c>
       <c r="E130" s="7">
         <f t="shared" si="4"/>
-        <v>9.9308759443802949E-3</v>
+        <v>0.54046640968034676</v>
       </c>
       <c r="F130" s="7">
         <f t="shared" si="3"/>
-        <v>9.9197866721792653E-3</v>
+        <v>0.49642895519682645</v>
       </c>
       <c r="G130" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25264,7 +25264,7 @@
       </c>
       <c r="P130" s="7">
         <f t="shared" si="5"/>
-        <v>9.9197866721792653E-3</v>
+        <v>0.49642895519682645</v>
       </c>
     </row>
     <row r="131" spans="4:16" x14ac:dyDescent="0.3">
@@ -25273,11 +25273,11 @@
       </c>
       <c r="E131" s="7">
         <f t="shared" si="4"/>
-        <v>1.9724776476229191E-2</v>
+        <v>0.67523290270407621</v>
       </c>
       <c r="F131" s="7">
         <f t="shared" si="3"/>
-        <v>1.9680860170775485E-2</v>
+        <v>0.59537128530040662</v>
       </c>
       <c r="G131" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25317,7 +25317,7 @@
       </c>
       <c r="P131" s="7">
         <f t="shared" si="5"/>
-        <v>1.9680860170775485E-2</v>
+        <v>0.59537128530040662</v>
       </c>
     </row>
     <row r="132" spans="4:16" x14ac:dyDescent="0.3">
@@ -25326,11 +25326,11 @@
       </c>
       <c r="E132" s="7">
         <f t="shared" si="4"/>
-        <v>4.8303388521253862E-2</v>
+        <v>0.7193059374774714</v>
       </c>
       <c r="F132" s="7">
         <f t="shared" si="3"/>
-        <v>4.8036992692665162E-2</v>
+        <v>0.61980500798129867</v>
       </c>
       <c r="G132" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25370,7 +25370,7 @@
       </c>
       <c r="P132" s="7">
         <f t="shared" si="5"/>
-        <v>4.8036992692665162E-2</v>
+        <v>0.61980500798129867</v>
       </c>
     </row>
     <row r="133" spans="4:16" x14ac:dyDescent="0.3">
@@ -25379,11 +25379,11 @@
       </c>
       <c r="E133" s="7">
         <f t="shared" si="4"/>
-        <v>9.3366197399958842E-2</v>
+        <v>0.71999933094057611</v>
       </c>
       <c r="F133" s="7">
         <f t="shared" si="3"/>
-        <v>9.2352126245080046E-2</v>
+        <v>0.6199999386743752</v>
       </c>
       <c r="G133" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25423,7 +25423,7 @@
       </c>
       <c r="P133" s="7">
         <f t="shared" si="5"/>
-        <v>9.2352126245080046E-2</v>
+        <v>0.6199999386743752</v>
       </c>
     </row>
     <row r="134" spans="4:16" x14ac:dyDescent="0.3">
@@ -25432,11 +25432,11 @@
       </c>
       <c r="E134" s="7">
         <f t="shared" si="4"/>
-        <v>0.17462510755418414</v>
+        <v>0.71999999999937825</v>
       </c>
       <c r="F134" s="7">
         <f t="shared" si="3"/>
-        <v>0.1709479376159872</v>
+        <v>0.61999999999999389</v>
       </c>
       <c r="G134" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25476,7 +25476,7 @@
       </c>
       <c r="P134" s="7">
         <f t="shared" si="5"/>
-        <v>0.1709479376159872</v>
+        <v>0.61999999999999389</v>
       </c>
     </row>
     <row r="135" spans="4:16" x14ac:dyDescent="0.3">
@@ -25485,11 +25485,11 @@
       </c>
       <c r="E135" s="7">
         <f t="shared" si="4"/>
-        <v>0.36046671220852111</v>
+        <v>0.72</v>
       </c>
       <c r="F135" s="7">
         <f t="shared" si="3"/>
-        <v>0.343207572758994</v>
+        <v>0.62</v>
       </c>
       <c r="G135" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25529,7 +25529,7 @@
       </c>
       <c r="P135" s="7">
         <f t="shared" si="5"/>
-        <v>0.343207572758994</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="136" spans="4:16" x14ac:dyDescent="0.3">
@@ -25538,11 +25538,11 @@
       </c>
       <c r="E136" s="7">
         <f t="shared" si="4"/>
-        <v>0.54046640968034665</v>
+        <v>0.72</v>
       </c>
       <c r="F136" s="7">
         <f t="shared" si="3"/>
-        <v>0.49642895519682645</v>
+        <v>0.62</v>
       </c>
       <c r="G136" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25582,7 +25582,7 @@
       </c>
       <c r="P136" s="7">
         <f t="shared" si="5"/>
-        <v>0.49642895519682645</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="137" spans="4:16" x14ac:dyDescent="0.3">
@@ -25591,11 +25591,11 @@
       </c>
       <c r="E137" s="7">
         <f t="shared" si="4"/>
-        <v>0.67523290270407621</v>
+        <v>0.72</v>
       </c>
       <c r="F137" s="7">
         <f t="shared" si="3"/>
-        <v>0.59537128530040662</v>
+        <v>0.62</v>
       </c>
       <c r="G137" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25635,7 +25635,7 @@
       </c>
       <c r="P137" s="7">
         <f t="shared" si="5"/>
-        <v>0.59537128530040662</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="138" spans="4:16" x14ac:dyDescent="0.3">
@@ -25644,11 +25644,11 @@
       </c>
       <c r="E138" s="7">
         <f t="shared" si="4"/>
-        <v>0.7193059374774714</v>
+        <v>0.72</v>
       </c>
       <c r="F138" s="7">
         <f t="shared" si="3"/>
-        <v>0.61980500798129867</v>
+        <v>0.62</v>
       </c>
       <c r="G138" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25688,7 +25688,7 @@
       </c>
       <c r="P138" s="7">
         <f t="shared" si="5"/>
-        <v>0.61980500798129867</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="139" spans="4:16" x14ac:dyDescent="0.3">
@@ -25697,11 +25697,11 @@
       </c>
       <c r="E139" s="7">
         <f t="shared" si="4"/>
-        <v>0.71999933094057611</v>
+        <v>0.72</v>
       </c>
       <c r="F139" s="7">
         <f t="shared" si="3"/>
-        <v>0.6199999386743752</v>
+        <v>0.62</v>
       </c>
       <c r="G139" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25741,7 +25741,7 @@
       </c>
       <c r="P139" s="7">
         <f t="shared" si="5"/>
-        <v>0.6199999386743752</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="140" spans="4:16" x14ac:dyDescent="0.3">
@@ -25750,11 +25750,11 @@
       </c>
       <c r="E140" s="7">
         <f t="shared" si="4"/>
-        <v>0.71999999999937825</v>
+        <v>0.72</v>
       </c>
       <c r="F140" s="7">
         <f t="shared" si="3"/>
-        <v>0.61999999999999389</v>
+        <v>0.62</v>
       </c>
       <c r="G140" s="7" t="str">
         <f t="shared" si="3"/>
@@ -25794,7 +25794,7 @@
       </c>
       <c r="P140" s="7">
         <f t="shared" si="5"/>
-        <v>0.61999999999999389</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="141" spans="4:16" x14ac:dyDescent="0.3">
@@ -26268,11 +26268,11 @@
       </c>
       <c r="E154" s="7">
         <f>IFERROR(E$6*(1-EXP(-$D154/(E$6*E$7))),"")</f>
-        <v>1.999866672592332E-4</v>
+        <v>4.9991667592513833E-4</v>
       </c>
       <c r="F154" s="7">
         <f t="shared" ref="F154:O169" si="6">IFERROR(F$6*(1-EXP(-$D154/(F$6*F$7))),"")</f>
-        <v>1.999866672592332E-4</v>
+        <v>4.9991667592513833E-4</v>
       </c>
       <c r="G154" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26312,7 +26312,7 @@
       </c>
       <c r="P154" s="7">
         <f>SUM(F154:O154)</f>
-        <v>1.999866672592332E-4</v>
+        <v>4.9991667592513833E-4</v>
       </c>
     </row>
     <row r="155" spans="4:16" x14ac:dyDescent="0.3">
@@ -26321,11 +26321,11 @@
       </c>
       <c r="E155" s="7">
         <f t="shared" ref="E155:O175" si="7">IFERROR(E$6*(1-EXP(-$D155/(E$6*E$7))),"")</f>
-        <v>3.9994667140708096E-4</v>
+        <v>9.9966674072837769E-4</v>
       </c>
       <c r="F155" s="7">
         <f t="shared" si="6"/>
-        <v>3.9994667140708096E-4</v>
+        <v>9.9966674072837769E-4</v>
       </c>
       <c r="G155" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26365,7 +26365,7 @@
       </c>
       <c r="P155" s="7">
         <f t="shared" ref="P155:P174" si="8">SUM(F155:O155)</f>
-        <v>3.9994667140708096E-4</v>
+        <v>9.9966674072837769E-4</v>
       </c>
     </row>
     <row r="156" spans="4:16" x14ac:dyDescent="0.3">
@@ -26374,11 +26374,11 @@
       </c>
       <c r="E156" s="7">
         <f t="shared" si="7"/>
-        <v>9.9966674072837769E-4</v>
+        <v>2.497917823591933E-3</v>
       </c>
       <c r="F156" s="7">
         <f t="shared" si="6"/>
-        <v>9.9966674072837769E-4</v>
+        <v>2.497917823591933E-3</v>
       </c>
       <c r="G156" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26418,7 +26418,7 @@
       </c>
       <c r="P156" s="7">
         <f t="shared" si="8"/>
-        <v>9.9966674072837769E-4</v>
+        <v>2.497917823591933E-3</v>
       </c>
     </row>
     <row r="157" spans="4:16" x14ac:dyDescent="0.3">
@@ -26427,11 +26427,11 @@
       </c>
       <c r="E157" s="7">
         <f t="shared" si="7"/>
-        <v>1.9986672590618371E-3</v>
+        <v>4.9916759182150883E-3</v>
       </c>
       <c r="F157" s="7">
         <f t="shared" si="6"/>
-        <v>1.9986672590618371E-3</v>
+        <v>4.9916759182150883E-3</v>
       </c>
       <c r="G157" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26471,7 +26471,7 @@
       </c>
       <c r="P157" s="7">
         <f t="shared" si="8"/>
-        <v>1.9986672590618371E-3</v>
+        <v>4.9916759182150883E-3</v>
       </c>
     </row>
     <row r="158" spans="4:16" x14ac:dyDescent="0.3">
@@ -26480,11 +26480,11 @@
       </c>
       <c r="E158" s="7">
         <f t="shared" si="7"/>
-        <v>3.9946714042485842E-3</v>
+        <v>9.9667406174483442E-3</v>
       </c>
       <c r="F158" s="7">
         <f t="shared" si="6"/>
-        <v>3.9946714042485842E-3</v>
+        <v>9.9667406174483442E-3</v>
       </c>
       <c r="G158" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26524,7 +26524,7 @@
       </c>
       <c r="P158" s="7">
         <f t="shared" si="8"/>
-        <v>3.9946714042485842E-3</v>
+        <v>9.9667406174483442E-3</v>
       </c>
     </row>
     <row r="159" spans="4:16" x14ac:dyDescent="0.3">
@@ -26533,11 +26533,11 @@
       </c>
       <c r="E159" s="7">
         <f t="shared" si="7"/>
-        <v>9.9667406174483442E-3</v>
+        <v>2.4792819267573762E-2</v>
       </c>
       <c r="F159" s="7">
         <f t="shared" si="6"/>
-        <v>9.9667406174483442E-3</v>
+        <v>2.4792819267573762E-2</v>
       </c>
       <c r="G159" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26577,7 +26577,7 @@
       </c>
       <c r="P159" s="7">
         <f t="shared" si="8"/>
-        <v>9.9667406174483442E-3</v>
+        <v>2.4792819267573762E-2</v>
       </c>
     </row>
     <row r="160" spans="4:16" x14ac:dyDescent="0.3">
@@ -26586,11 +26586,11 @@
       </c>
       <c r="E160" s="7">
         <f t="shared" si="7"/>
-        <v>1.9867257289206464E-2</v>
+        <v>4.9175849276991146E-2</v>
       </c>
       <c r="F160" s="7">
         <f t="shared" si="6"/>
-        <v>1.9867257289206464E-2</v>
+        <v>4.9175849276991146E-2</v>
       </c>
       <c r="G160" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26630,7 +26630,7 @@
       </c>
       <c r="P160" s="7">
         <f t="shared" si="8"/>
-        <v>1.9867257289206464E-2</v>
+        <v>4.9175849276991146E-2</v>
       </c>
     </row>
     <row r="161" spans="4:16" x14ac:dyDescent="0.3">
@@ -26639,11 +26639,11 @@
       </c>
       <c r="E161" s="7">
         <f t="shared" si="7"/>
-        <v>3.9471375970282496E-2</v>
+        <v>9.6739522452573334E-2</v>
       </c>
       <c r="F161" s="7">
         <f t="shared" si="6"/>
-        <v>3.9471375970282496E-2</v>
+        <v>9.6739522452573334E-2</v>
       </c>
       <c r="G161" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26683,7 +26683,7 @@
       </c>
       <c r="P161" s="7">
         <f t="shared" si="8"/>
-        <v>3.9471375970282496E-2</v>
+        <v>9.6739522452573334E-2</v>
       </c>
     </row>
     <row r="162" spans="4:16" x14ac:dyDescent="0.3">
@@ -26692,11 +26692,11 @@
       </c>
       <c r="E162" s="7">
         <f t="shared" si="7"/>
-        <v>9.6739522452573334E-2</v>
+        <v>0.23027741266407881</v>
       </c>
       <c r="F162" s="7">
         <f t="shared" si="6"/>
-        <v>9.6739522452573334E-2</v>
+        <v>0.23027741266407881</v>
       </c>
       <c r="G162" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26736,7 +26736,7 @@
       </c>
       <c r="P162" s="7">
         <f t="shared" si="8"/>
-        <v>9.6739522452573334E-2</v>
+        <v>0.23027741266407881</v>
       </c>
     </row>
     <row r="163" spans="4:16" x14ac:dyDescent="0.3">
@@ -26745,11 +26745,11 @@
       </c>
       <c r="E163" s="7">
         <f t="shared" si="7"/>
-        <v>0.18724002143557877</v>
+        <v>0.42520303413931609</v>
       </c>
       <c r="F163" s="7">
         <f t="shared" si="6"/>
-        <v>0.18724002143557877</v>
+        <v>0.42520303413931609</v>
       </c>
       <c r="G163" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26789,7 +26789,7 @@
       </c>
       <c r="P163" s="7">
         <f t="shared" si="8"/>
-        <v>0.18724002143557877</v>
+        <v>0.42520303413931609</v>
       </c>
     </row>
     <row r="164" spans="4:16" x14ac:dyDescent="0.3">
@@ -26798,11 +26798,11 @@
       </c>
       <c r="E164" s="7">
         <f t="shared" si="7"/>
-        <v>0.35110749245302697</v>
+        <v>0.72987432145111197</v>
       </c>
       <c r="F164" s="7">
         <f t="shared" si="6"/>
-        <v>0.35110749245302697</v>
+        <v>0.72987432145111197</v>
       </c>
       <c r="G164" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26842,7 +26842,7 @@
       </c>
       <c r="P164" s="7">
         <f t="shared" si="8"/>
-        <v>0.35110749245302697</v>
+        <v>0.72987432145111197</v>
       </c>
     </row>
     <row r="165" spans="4:16" x14ac:dyDescent="0.3">
@@ -26851,11 +26851,11 @@
       </c>
       <c r="E165" s="7">
         <f t="shared" si="7"/>
-        <v>0.72987432145111197</v>
+        <v>1.2166865957436572</v>
       </c>
       <c r="F165" s="7">
         <f t="shared" si="6"/>
-        <v>0.72987432145111197</v>
+        <v>1.2166865957436572</v>
       </c>
       <c r="G165" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26895,7 +26895,7 @@
       </c>
       <c r="P165" s="7">
         <f t="shared" si="8"/>
-        <v>0.72987432145111197</v>
+        <v>1.2166865957436572</v>
       </c>
     </row>
     <row r="166" spans="4:16" x14ac:dyDescent="0.3">
@@ -26904,11 +26904,11 @@
       </c>
       <c r="E166" s="7">
         <f t="shared" si="7"/>
-        <v>1.1046042928264099</v>
+        <v>1.4464890099791214</v>
       </c>
       <c r="F166" s="7">
         <f t="shared" si="6"/>
-        <v>1.1046042928264099</v>
+        <v>1.4464890099791214</v>
       </c>
       <c r="G166" s="7" t="str">
         <f t="shared" si="6"/>
@@ -26948,7 +26948,7 @@
       </c>
       <c r="P166" s="7">
         <f t="shared" si="8"/>
-        <v>1.1046042928264099</v>
+        <v>1.4464890099791214</v>
       </c>
     </row>
     <row r="167" spans="4:16" x14ac:dyDescent="0.3">
@@ -26957,11 +26957,11 @@
       </c>
       <c r="E167" s="7">
         <f t="shared" si="7"/>
-        <v>1.3957748231657976</v>
+        <v>1.4980910492979902</v>
       </c>
       <c r="F167" s="7">
         <f t="shared" si="6"/>
-        <v>1.3957748231657976</v>
+        <v>1.4980910492979902</v>
       </c>
       <c r="G167" s="7" t="str">
         <f t="shared" si="6"/>
@@ -27001,7 +27001,7 @@
       </c>
       <c r="P167" s="7">
         <f t="shared" si="8"/>
-        <v>1.3957748231657976</v>
+        <v>1.4980910492979902</v>
       </c>
     </row>
     <row r="168" spans="4:16" x14ac:dyDescent="0.3">
@@ -27010,11 +27010,11 @@
       </c>
       <c r="E168" s="7">
         <f t="shared" si="7"/>
-        <v>1.4980910492979902</v>
+        <v>1.499999913333772</v>
       </c>
       <c r="F168" s="7">
         <f t="shared" si="6"/>
-        <v>1.4980910492979902</v>
+        <v>1.499999913333772</v>
       </c>
       <c r="G168" s="7" t="str">
         <f t="shared" si="6"/>
@@ -27054,7 +27054,7 @@
       </c>
       <c r="P168" s="7">
         <f t="shared" si="8"/>
-        <v>1.4980910492979902</v>
+        <v>1.499999913333772</v>
       </c>
     </row>
     <row r="169" spans="4:16" x14ac:dyDescent="0.3">
@@ -27063,11 +27063,11 @@
       </c>
       <c r="E169" s="7">
         <f t="shared" si="7"/>
-        <v>1.4999975706048114</v>
+        <v>1.4999999999999951</v>
       </c>
       <c r="F169" s="7">
         <f t="shared" si="6"/>
-        <v>1.4999975706048114</v>
+        <v>1.4999999999999951</v>
       </c>
       <c r="G169" s="7" t="str">
         <f t="shared" si="6"/>
@@ -27107,7 +27107,7 @@
       </c>
       <c r="P169" s="7">
         <f t="shared" si="8"/>
-        <v>1.4999975706048114</v>
+        <v>1.4999999999999951</v>
       </c>
     </row>
     <row r="170" spans="4:16" x14ac:dyDescent="0.3">
@@ -27116,11 +27116,11 @@
       </c>
       <c r="E170" s="7">
         <f t="shared" si="7"/>
-        <v>1.4999999999960654</v>
+        <v>1.5</v>
       </c>
       <c r="F170" s="7">
         <f t="shared" si="7"/>
-        <v>1.4999999999960654</v>
+        <v>1.5</v>
       </c>
       <c r="G170" s="7" t="str">
         <f t="shared" si="7"/>
@@ -27160,7 +27160,7 @@
       </c>
       <c r="P170" s="7">
         <f t="shared" si="8"/>
-        <v>1.4999999999960654</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="171" spans="4:16" x14ac:dyDescent="0.3">
